--- a/test-files/small-r-ts.xlsx
+++ b/test-files/small-r-ts.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DSSExcelPlugin\DSSExcelTests\test-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\DSSExcel\test-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CBCE05-EBD5-4330-A5BF-0AB47F780EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9674A22D-37D2-456D-A601-B49E1209D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="60" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4850" yWindow="1480" windowWidth="18240" windowHeight="10400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -94,15 +103,6 @@
   </si>
   <si>
     <t>01Jun2020  0115</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -420,18 +420,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -455,12 +455,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -476,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -484,125 +484,123 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <f>C8+1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C17" si="0">C9+1</f>
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
         <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
